--- a/data/trans_bre/P38A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9966388842003124</v>
+        <v>1.181714029879724</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.265294045189693</v>
+        <v>2.288796504244991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.706302776751679</v>
+        <v>2.572867662614356</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.01116107085915228</v>
+        <v>0.0128342255239248</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0246420656032801</v>
+        <v>0.02491727858481474</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02935509615776177</v>
+        <v>0.02896424294990864</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.640589205016122</v>
+        <v>5.720954475277283</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.564591560970069</v>
+        <v>7.551560174760236</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.042223471920503</v>
+        <v>9.491143055347017</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.06362705049554458</v>
+        <v>0.06441787765421546</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08623231138417119</v>
+        <v>0.08576759731738549</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1057060080643499</v>
+        <v>0.1114136489231717</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>6.831957053754067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.241244903729404</v>
+        <v>6.241244903729381</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.06047719559181161</v>
@@ -709,7 +709,7 @@
         <v>0.08427390685442068</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07852026530452449</v>
+        <v>0.07852026530452422</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.662411754132217</v>
+        <v>2.58710348794528</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.620714704566883</v>
+        <v>4.55848007546714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.268558732553765</v>
+        <v>3.446067108222398</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03212151734470196</v>
+        <v>0.03136908549633827</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05620424317603206</v>
+        <v>0.05507709277629018</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0405141463086813</v>
+        <v>0.04248338974251259</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.305042261211893</v>
+        <v>7.218149071344985</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.18725572384362</v>
+        <v>9.106177337012646</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.965058553835549</v>
+        <v>8.885024195509331</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.0911308362556854</v>
+        <v>0.08985014379823682</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1152777501830457</v>
+        <v>0.1135032986043691</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1163692297506569</v>
+        <v>0.1145692683937677</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>3.684018873228601</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.923200259707258</v>
+        <v>1.923200259707269</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.00836169852425412</v>
@@ -791,7 +791,7 @@
         <v>0.04361280931102065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02173976167803443</v>
+        <v>0.02173976167803456</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.02007357205559</v>
+        <v>-4.938089888688972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2070437432434882</v>
+        <v>-0.772171900725253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.467690381362008</v>
+        <v>-1.75754350424302</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.05425942722200255</v>
+        <v>-0.05378357223233028</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.002420849241651137</v>
+        <v>-0.009009882646919432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01625511005223942</v>
+        <v>-0.01908810075703616</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.120783970791766</v>
+        <v>3.555519938570126</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.366299158117968</v>
+        <v>7.799329148919792</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.393781278348738</v>
+        <v>4.840544397666354</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.03533143157154254</v>
+        <v>0.04086192010393548</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1026128102960793</v>
+        <v>0.09527801432575482</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06275246007884393</v>
+        <v>0.05646470934546861</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>6.269706843915179</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5.754311533588108</v>
+        <v>5.754311533588119</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.05129813421534973</v>
@@ -873,7 +873,7 @@
         <v>0.0750386032554481</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06955008355490062</v>
+        <v>0.06955008355490076</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.674200833655583</v>
+        <v>2.765149865064631</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.682478915700655</v>
+        <v>4.724089463710222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.983800894475189</v>
+        <v>3.638342137482425</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03082338614286336</v>
+        <v>0.03211908567687389</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05523709762598736</v>
+        <v>0.05602604570414813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04718586995900421</v>
+        <v>0.04330838611975996</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.921969299046483</v>
+        <v>6.056156944032897</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.842543037571553</v>
+        <v>7.907808080749482</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.87220804504379</v>
+        <v>7.599309169944779</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.070414382400421</v>
+        <v>0.07211558472653035</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09424897018417554</v>
+        <v>0.0956246839417968</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09662380255183772</v>
+        <v>0.09351364908086264</v>
       </c>
     </row>
     <row r="16">
